--- a/plantillas/plantilla-bm3.xlsx
+++ b/plantillas/plantilla-bm3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Desktop\ServicioComunitario\SistBienes-Backend\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FDF373-CBE1-469F-B2F3-E73539206499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B86C1D-A21D-48C4-B24A-9FB2B90E6BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{39F4D6AD-F5D2-48CD-92EC-5F98442F2ED8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>FORMATO BM-3</t>
   </si>
@@ -45,138 +45,112 @@
     <t>1- Entidad Propietaria: Alcaldia Bolivariana  del Municipio Cardenas     RIF G-20005180-9</t>
   </si>
   <si>
+    <t>2,- Unidad Ejecutura: {{DEPARTAMENTO}}</t>
+  </si>
+  <si>
+    <t>6,- Identificacion del comprobante.</t>
+  </si>
+  <si>
+    <t>3,- Municipio : Cardenas.</t>
+  </si>
+  <si>
+    <t>Codigo de seccion:</t>
+  </si>
+  <si>
+    <t>4,- Estado: Tachira.</t>
+  </si>
+  <si>
+    <t>8. CODIGO</t>
+  </si>
+  <si>
+    <t>Número de Identificación</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>DESCRIPCION DE LOS BIENES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9. CANTIDAD</t>
+  </si>
+  <si>
+    <t>10. VALOR UNITARIO</t>
+  </si>
+  <si>
+    <t>11. DIFERENCIA CANTIDAD VALOR TOTAL</t>
+  </si>
+  <si>
+    <t>Grupo</t>
+  </si>
+  <si>
+    <t>Sub- Grupo</t>
+  </si>
+  <si>
+    <t>Sección</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Existencia Fisica </t>
+  </si>
+  <si>
+    <t>Registros Contables</t>
+  </si>
+  <si>
+    <t>12.- OBSERVACIONES:</t>
+  </si>
+  <si>
+    <t>13.- FALTANTE DETERMINADO POR:{{RESPONSABLE}}</t>
+  </si>
+  <si>
+    <t>14.- CARGO QUE DESEMPEÑA: {{ROL}}</t>
+  </si>
+  <si>
+    <t>16.- FIRMA:</t>
+  </si>
+  <si>
+    <t>18.- FIRMA:</t>
+  </si>
+  <si>
+    <t>15.- DEPENDENCIA A LA CUAL ESTA ADSCRITO: {{DEPARTAMENTORESPONSABLE}}</t>
+  </si>
+  <si>
+    <t>5,- Direccion o Lugar:{{PARROQUIA}}</t>
+  </si>
+  <si>
+    <t>{{OBSERVACIONES}}</t>
+  </si>
+  <si>
     <r>
-      <t>Nº de Hoja</t>
+      <t xml:space="preserve">Nº de Hoja: </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="8"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> {{PAGINAN}}/{{TOTALN}}</t>
+      <t>{{PAGINAN}}/{{TOTALN}}</t>
     </r>
   </si>
   <si>
-    <t>2,- Unidad Ejecutura: {{DEPARTAMENTO}}</t>
-  </si>
-  <si>
-    <t>6,- Identificacion del comprobante.</t>
-  </si>
-  <si>
-    <t>3,- Municipio : Cardenas.</t>
-  </si>
-  <si>
-    <t>Codigo de seccion:</t>
-  </si>
-  <si>
-    <t>4,- Estado: Tachira.</t>
-  </si>
-  <si>
-    <t>7,-fecha: {{FECHA}}</t>
-  </si>
-  <si>
-    <t>8. CODIGO</t>
-  </si>
-  <si>
-    <t>Número de Identificación</t>
-  </si>
-  <si>
-    <t>Cantidad</t>
-  </si>
-  <si>
-    <t>DESCRIPCION DE LOS BIENES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9. CANTIDAD</t>
-  </si>
-  <si>
-    <t>10. VALOR UNITARIO</t>
-  </si>
-  <si>
-    <t>11. DIFERENCIA CANTIDAD VALOR TOTAL</t>
-  </si>
-  <si>
-    <t>Grupo</t>
-  </si>
-  <si>
-    <t>Sub- Grupo</t>
-  </si>
-  <si>
-    <t>Sección</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Existencia Fisica </t>
-  </si>
-  <si>
-    <t>Registros Contables</t>
-  </si>
-  <si>
-    <t>12.- OBSERVACIONES:</t>
-  </si>
-  <si>
-    <t>13.- FALTANTE DETERMINADO POR:{{RESPONSABLE}}</t>
-  </si>
-  <si>
-    <t>14.- CARGO QUE DESEMPEÑA: {{ROL}}</t>
-  </si>
-  <si>
-    <t>16.- FIRMA:</t>
-  </si>
-  <si>
-    <t>17.- JEFE DE LA UNIDAD DE TRABAJO:</t>
-  </si>
-  <si>
-    <t>18.- FIRMA:</t>
-  </si>
-  <si>
-    <t>15.- DEPENDENCIA A LA CUAL ESTA ADSCRITO: {{DEPARTAMENTORESPONSABLE}}</t>
-  </si>
-  <si>
-    <t>5,- Direccion o Lugar:{{PARROQUIA}}</t>
+    <t>7,-Fecha: {{FECHA}}</t>
+  </si>
+  <si>
+    <t>17.- JEFE DE LA UNIDAD DE TRABAJO: {{JEFE}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -186,10 +160,40 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="8"/>
-      <name val="Times New Roman"/>
+      <name val="Cambria"/>
       <family val="1"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -200,7 +204,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -329,89 +333,128 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="59"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="59"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="59"/>
+      </right>
+      <top style="thin">
+        <color indexed="59"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="59"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -730,7 +773,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="A1:K25"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,453 +782,459 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="26"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="26"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="26"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="26"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A4" s="27"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="8" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="26"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="8" t="s">
+      <c r="J6" s="30"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="26"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="8" t="s">
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="26"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="8" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="26"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="26"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="E10" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11" t="s">
+      <c r="F10" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="G10" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="K10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14" t="s">
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="26"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="C11" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="H12" s="6"/>
+      <c r="I12" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="26"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="17" t="s">
+      <c r="J12" s="20"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="17" t="s">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="14"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="26"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="26"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="26"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="26"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="26"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="26"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="26"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="26"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20" t="s">
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="26"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="20" t="s">
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="26"/>
-    </row>
-    <row r="22" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="26"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="26"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="26"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="26"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="4"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="26"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="4"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="A21:F25"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="A3:K4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="I9:K9"/>
     <mergeCell ref="K10:K13"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
@@ -1198,19 +1247,16 @@
     <mergeCell ref="F10:F13"/>
     <mergeCell ref="G10:I11"/>
     <mergeCell ref="J10:J13"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="A3:K4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="A21:F25"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="G25:K25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>